--- a/biology/Zoologie/Cretapsyche/Cretapsyche.xlsx
+++ b/biology/Zoologie/Cretapsyche/Cretapsyche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cretapsychidae
 Cretapsyche est un genre fossile d'insectes de l'ordre des Trichoptera, du sous-ordre des Integripalpia et de la famille également fossile des Dysoneuridae selon GBIF et Cretapsychidae selon TPDB.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes espèces ont été trouvées dans de l'ambre de Birmanie dans des terrains datant du début du Crétacé supérieur, du Cénomanien, soit il y a environ entre 100,5 et 93,9 millions d'années.
 </t>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cretapsyche est décrit en 2017 par Wilfried Wichard et al.[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cretapsyche est décrit en 2017 par Wilfried Wichard et al.,.
 </t>
         </is>
       </c>
@@ -574,15 +590,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023, le nombre des espèces référencées est de six[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre des espèces référencées est de six :
 † Cretapsyche circula Wichard et al., 2017 espèce type
 † Cretapsyche elegans Wichard et al., 2017
 † Cretapsyche insueta Wichard et al., 2017
 † Cretapsyche kachini Wichard and Espeland, 2022
 † Cretapsyche myanmari Wichard and Espeland, 2022
-† Cretapsyche palpinova Wichard and Neumann, 2019[2]</t>
+† Cretapsyche palpinova Wichard and Neumann, 2019</t>
         </is>
       </c>
     </row>
